--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA7FA3C-46BC-B442-AB2A-E7C87534600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5FC931-5765-4B48-AE89-11B6D542B889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -533,6 +533,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
+      <c r="A7" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
@@ -540,7 +543,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{AFBE8648-7E7E-B84A-85DF-8D06C1E4C2CD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{AFBE8648-7E7E-B84A-85DF-8D06C1E4C2CD}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5FC931-5765-4B48-AE89-11B6D542B889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145AB4C6-102E-0F4E-87A2-8C566F4C6D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145AB4C6-102E-0F4E-87A2-8C566F4C6D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7959DB02-036A-E14C-A5FF-95FF3E2CBA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>LINK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>라이브러리 샘플링</t>
+  </si>
+  <si>
+    <t>_pub_fullpage</t>
+  </si>
+  <si>
+    <t>_pub_scroll_snap</t>
+  </si>
+  <si>
+    <t>_pub_fixed</t>
+  </si>
+  <si>
+    <t>_pub_wheel_hscroll</t>
   </si>
 </sst>
 </file>
@@ -460,7 +472,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -507,6 +519,9 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="b">
@@ -515,6 +530,9 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="b">
@@ -523,6 +541,9 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="b">
@@ -530,6 +551,9 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7959DB02-036A-E14C-A5FF-95FF3E2CBA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A530CB0-9B33-0C43-81C8-3834F731057F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,20 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>LINK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>VISIBLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +86,184 @@
   </si>
   <si>
     <t>_pub_wheel_hscroll</t>
+  </si>
+  <si>
+    <t>EXTERNAL_LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swiperjs</t>
+  </si>
+  <si>
+    <t>_pub_swiper</t>
+  </si>
+  <si>
+    <t>Accordion</t>
+  </si>
+  <si>
+    <t>_pub_accordion</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>_pub_aos</t>
+  </si>
+  <si>
+    <t>Plyr</t>
+  </si>
+  <si>
+    <t>_pub_plyr</t>
+  </si>
+  <si>
+    <t>AutoComplete.js</t>
+  </si>
+  <si>
+    <t>_pub_auto_complete</t>
+  </si>
+  <si>
+    <t>particles.js</t>
+  </si>
+  <si>
+    <t>_pub_particles</t>
+  </si>
+  <si>
+    <t>SortableJS</t>
+  </si>
+  <si>
+    <t>_pub_sortablejs</t>
+  </si>
+  <si>
+    <t>flatpickr</t>
+  </si>
+  <si>
+    <t>_pub_flatpickr</t>
+  </si>
+  <si>
+    <t>라이브러리</t>
+  </si>
+  <si>
+    <t>Swiper - 슬라이드</t>
+  </si>
+  <si>
+    <t>https://swiperjs.com/</t>
+  </si>
+  <si>
+    <t>카카오맵</t>
+  </si>
+  <si>
+    <t>https://apis.map.kakao.com/web/guide/</t>
+  </si>
+  <si>
+    <t>Accordion - 아코디언</t>
+  </si>
+  <si>
+    <t>https://michu2k.github.io/Accordion/</t>
+  </si>
+  <si>
+    <t>AOS - 스크롤 반응 애니메이션</t>
+  </si>
+  <si>
+    <t>http://michalsnik.github.io/aos/</t>
+  </si>
+  <si>
+    <t>Plyr - 비디오 플레이어</t>
+  </si>
+  <si>
+    <t>https://plyr.io/</t>
+  </si>
+  <si>
+    <t>autoComplete.js - 자동완성</t>
+  </si>
+  <si>
+    <t>https://tarekraafat.github.io/autoComplete.js/#/</t>
+  </si>
+  <si>
+    <t>panzoom - 확대, 축소, 드래그 스크롤</t>
+  </si>
+  <si>
+    <t>https://timmywil.com/panzoom/</t>
+  </si>
+  <si>
+    <t>particles.js - 파티클</t>
+  </si>
+  <si>
+    <t>https://vincentgarreau.com/particles.js/</t>
+  </si>
+  <si>
+    <t>SortableJS - 리스트 드래그</t>
+  </si>
+  <si>
+    <t>https://sortablejs.github.io/Sortable/</t>
+  </si>
+  <si>
+    <t>flatpickr - 데이트피커</t>
+  </si>
+  <si>
+    <t>https://flatpickr.js.org/</t>
+  </si>
+  <si>
+    <t>퍼블리싱 가이드</t>
+  </si>
+  <si>
+    <t>폼 가이드</t>
+  </si>
+  <si>
+    <t>guide_form</t>
+  </si>
+  <si>
+    <t>예외 버튼 가이드</t>
+  </si>
+  <si>
+    <t>guide_etc_button</t>
+  </si>
+  <si>
+    <t>컴포넌트 가이드</t>
+  </si>
+  <si>
+    <t>guide_componet</t>
+  </si>
+  <si>
+    <t>헤더 가이드</t>
+  </si>
+  <si>
+    <t>guide_layout</t>
+  </si>
+  <si>
+    <t>레이어 가이드</t>
+  </si>
+  <si>
+    <t>guide_layer</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>layer_1</t>
+  </si>
+  <si>
+    <t>BottomSheet</t>
+  </si>
+  <si>
+    <t>layer_2</t>
+  </si>
+  <si>
+    <t>SelectOption</t>
+  </si>
+  <si>
+    <t>layer_3</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>login_1</t>
+  </si>
+  <si>
+    <t>메인</t>
+  </si>
+  <si>
+    <t>main_1</t>
   </si>
 </sst>
 </file>
@@ -152,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,11 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -481,93 +651,414 @@
     <col min="8" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6" ht="24">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24">
+      <c r="A2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="24">
+      <c r="A3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24">
+      <c r="A4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24">
+      <c r="A5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="6" spans="1:6" ht="24">
+      <c r="A6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6" ht="24">
       <c r="A7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24">
+      <c r="A8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24">
+      <c r="A9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24">
+      <c r="A10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24">
+      <c r="A11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24">
+      <c r="A12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24">
+      <c r="A13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24">
+      <c r="A14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24">
+      <c r="A15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24">
+      <c r="A16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24">
+      <c r="A17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="48">
+      <c r="A18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="48">
+      <c r="A19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="48">
+      <c r="A20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24">
+      <c r="A21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="72">
+      <c r="A22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="48">
+      <c r="A23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48">
+      <c r="A24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="48">
+      <c r="A25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24">
+      <c r="A26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24">
+      <c r="A27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24">
+      <c r="A28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24">
+      <c r="A29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="24">
+      <c r="A30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="24">
+      <c r="A31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24">
+      <c r="A32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24">
+      <c r="A33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24">
+      <c r="A34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24">
+      <c r="A35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24">
+      <c r="A36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24">
+      <c r="A37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{AFBE8648-7E7E-B84A-85DF-8D06C1E4C2CD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A37" xr:uid="{AFBE8648-7E7E-B84A-85DF-8D06C1E4C2CD}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A530CB0-9B33-0C43-81C8-3834F731057F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4950AF6B-C04E-2949-9577-1EFC862CA961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>VISIBLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,19 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퍼블전용</t>
-  </si>
-  <si>
-    <t>FullPageSwiper</t>
-  </si>
-  <si>
-    <t>ScrollSnap</t>
-  </si>
-  <si>
     <t>Fixed &amp; Sticky</t>
-  </si>
-  <si>
-    <t>WheelDownHScroll</t>
   </si>
   <si>
     <t>라이브러리 샘플링</t>
@@ -122,9 +110,6 @@
     <t>_pub_auto_complete</t>
   </si>
   <si>
-    <t>particles.js</t>
-  </si>
-  <si>
     <t>_pub_particles</t>
   </si>
   <si>
@@ -134,15 +119,9 @@
     <t>_pub_sortablejs</t>
   </si>
   <si>
-    <t>flatpickr</t>
-  </si>
-  <si>
     <t>_pub_flatpickr</t>
   </si>
   <si>
-    <t>라이브러리</t>
-  </si>
-  <si>
     <t>Swiper - 슬라이드</t>
   </si>
   <si>
@@ -206,54 +185,6 @@
     <t>퍼블리싱 가이드</t>
   </si>
   <si>
-    <t>폼 가이드</t>
-  </si>
-  <si>
-    <t>guide_form</t>
-  </si>
-  <si>
-    <t>예외 버튼 가이드</t>
-  </si>
-  <si>
-    <t>guide_etc_button</t>
-  </si>
-  <si>
-    <t>컴포넌트 가이드</t>
-  </si>
-  <si>
-    <t>guide_componet</t>
-  </si>
-  <si>
-    <t>헤더 가이드</t>
-  </si>
-  <si>
-    <t>guide_layout</t>
-  </si>
-  <si>
-    <t>레이어 가이드</t>
-  </si>
-  <si>
-    <t>guide_layer</t>
-  </si>
-  <si>
-    <t>Alert</t>
-  </si>
-  <si>
-    <t>layer_1</t>
-  </si>
-  <si>
-    <t>BottomSheet</t>
-  </si>
-  <si>
-    <t>layer_2</t>
-  </si>
-  <si>
-    <t>SelectOption</t>
-  </si>
-  <si>
-    <t>layer_3</t>
-  </si>
-  <si>
     <t>로그인</t>
   </si>
   <si>
@@ -264,6 +195,160 @@
   </si>
   <si>
     <t>main_1</t>
+  </si>
+  <si>
+    <t>테스트</t>
+  </si>
+  <si>
+    <t>_pub_test</t>
+  </si>
+  <si>
+    <t>커스텀 UI</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>_pub_component</t>
+  </si>
+  <si>
+    <t>D_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS Scroll Snap</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Full Page Swiper</t>
+  </si>
+  <si>
+    <t>Wheel Down Horizontal Scroll</t>
+  </si>
+  <si>
+    <t>_pub_header</t>
+  </si>
+  <si>
+    <t>_pub_footer</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Text Input</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>체크박스</t>
+  </si>
+  <si>
+    <t>라디오버튼</t>
+  </si>
+  <si>
+    <t>_pub_input</t>
+  </si>
+  <si>
+    <t>_pub_select</t>
+  </si>
+  <si>
+    <t>_pub_dropdown</t>
+  </si>
+  <si>
+    <t>_pub_button</t>
+  </si>
+  <si>
+    <t>_pub_checkbox</t>
+  </si>
+  <si>
+    <t>_pub_radiobutton</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>Modal Control Sample</t>
+  </si>
+  <si>
+    <t>레이어 팝업</t>
+  </si>
+  <si>
+    <t>Alert 또는 Confirm</t>
+  </si>
+  <si>
+    <t>바텀시트</t>
+  </si>
+  <si>
+    <t>_pub_modal_control</t>
+  </si>
+  <si>
+    <t>_pub_layerpop</t>
+  </si>
+  <si>
+    <t>_pub_alert</t>
+  </si>
+  <si>
+    <t>_pub_bottom_sheet</t>
+  </si>
+  <si>
+    <t>Particles.js</t>
+  </si>
+  <si>
+    <t>Flatpickr</t>
+  </si>
+  <si>
+    <t>FontAwesome</t>
+  </si>
+  <si>
+    <t>threejs</t>
+  </si>
+  <si>
+    <t>_pub_fontawesome</t>
+  </si>
+  <si>
+    <t>_pub_three</t>
+  </si>
+  <si>
+    <t>라이브러리 공식 홈페이지</t>
+  </si>
+  <si>
+    <t>UAParser.js - OS 및 브라우져 확인</t>
+  </si>
+  <si>
+    <t>fontawesome - 아이콘</t>
+  </si>
+  <si>
+    <t>D3.js - 웹차트</t>
+  </si>
+  <si>
+    <t>threejs - 3D 모델링</t>
+  </si>
+  <si>
+    <t>https://uaparser.js.org/</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/download</t>
+  </si>
+  <si>
+    <t>https://observablehq.com/@d3/gallery?utm_source=d3js-org&amp;utm_medium=nav&amp;utm_campaign=try-observable</t>
+  </si>
+  <si>
+    <t>https://threejs.org/</t>
   </si>
 </sst>
 </file>
@@ -638,20 +723,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
-    <col min="1" max="7" width="25.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="6" width="30.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24">
+    <row r="1" spans="1:7" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,295 +752,289 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24">
       <c r="A2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24">
       <c r="A3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24">
       <c r="A4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24">
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24">
       <c r="A5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24">
       <c r="A6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24">
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24">
       <c r="A7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24">
+      <c r="A8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24">
+      <c r="A9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24">
+      <c r="A10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24">
+      <c r="A11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24">
+      <c r="A12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24">
+      <c r="A13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24">
+      <c r="A14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24">
+      <c r="A15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48">
+      <c r="A16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24">
-      <c r="A8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24">
-      <c r="A9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24">
-      <c r="A10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24">
-      <c r="A11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24">
-      <c r="A12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24">
-      <c r="A13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24">
-      <c r="A14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24">
-      <c r="A15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24">
-      <c r="A16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24">
       <c r="A17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="48">
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24">
       <c r="A18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="48">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24">
       <c r="A19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="48">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24">
       <c r="A20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24">
       <c r="A21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
+      <c r="E21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="72">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24">
       <c r="A22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="48">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24">
       <c r="A23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
+      <c r="E23" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="48">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24">
       <c r="A24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="48">
+      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24">
       <c r="A25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24">
       <c r="A26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
+      <c r="E26" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24">
       <c r="A27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
+      <c r="E27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24">
       <c r="A28" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24">
@@ -961,103 +1042,233 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24">
       <c r="A30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>59</v>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24">
       <c r="A31" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>61</v>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24">
       <c r="A32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="24">
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="24">
       <c r="A33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="24">
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24">
       <c r="A34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="24">
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24">
       <c r="A35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="24">
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="24">
       <c r="A36" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="24">
+      <c r="D36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="24">
       <c r="A37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>73</v>
+      <c r="D37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="24">
+      <c r="D38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="24">
+      <c r="D39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="24" customHeight="1">
+      <c r="B40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="48">
+      <c r="C41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="24">
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="48">
+      <c r="C43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="48">
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="48">
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="24">
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="72">
+      <c r="C47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="48">
+      <c r="C48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="48">
+      <c r="C49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="48">
+      <c r="C50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="24">
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="48">
+      <c r="C52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="144">
+      <c r="C53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="24">
+      <c r="C54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A37" xr:uid="{AFBE8648-7E7E-B84A-85DF-8D06C1E4C2CD}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4950AF6B-C04E-2949-9577-1EFC862CA961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D54AFC-090F-AC47-A083-1FD7E7EEAF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
-  <si>
-    <t>VISIBLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,22 +719,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:6" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,530 +744,414 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24">
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24">
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24">
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24">
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24">
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24">
+      <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24">
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24">
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24">
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24">
+      <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24">
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="48">
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="24">
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="24">
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="24">
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="24">
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="24">
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="24">
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="24">
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="24">
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="24">
+      <c r="D25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="24">
+      <c r="D26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="24">
+      <c r="D27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="24">
+      <c r="D28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="24">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="24">
+      <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="24">
-      <c r="A3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24">
-      <c r="A4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="24">
-      <c r="A5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24">
-      <c r="A6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24">
-      <c r="A7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="24">
-      <c r="A8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="24">
-      <c r="A9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="24">
-      <c r="A10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24">
-      <c r="A11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24">
-      <c r="A12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="24">
-      <c r="A13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24">
-      <c r="A14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="24">
-      <c r="A15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="48">
-      <c r="A16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24">
-      <c r="A17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24">
-      <c r="A18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24">
-      <c r="A19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="24">
-      <c r="A20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="24">
-      <c r="A21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24">
-      <c r="A22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24">
-      <c r="A23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24">
-      <c r="A24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24">
-      <c r="A25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24">
-      <c r="A26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24">
-      <c r="A27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24">
-      <c r="A28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="24">
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="24">
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="24">
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="24">
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="24">
+      <c r="C35" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="24">
-      <c r="A29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="24">
-      <c r="A30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="24">
-      <c r="A31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="24">
-      <c r="A32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="24">
-      <c r="A33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="24">
-      <c r="A34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="24">
-      <c r="A35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
+    <row r="36" spans="1:6" ht="24">
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="24">
+      <c r="C37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="24">
-      <c r="A36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="24">
-      <c r="A37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
+    <row r="38" spans="1:6" ht="24">
+      <c r="C38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="24">
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="48">
+      <c r="B41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="24">
+      <c r="B42" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="24">
-      <c r="D38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="24">
-      <c r="D39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="24" customHeight="1">
-      <c r="B40" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="48">
-      <c r="C41" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="48">
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="48">
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="48">
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="24">
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="72">
+      <c r="B47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="48">
+      <c r="B48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="48">
+      <c r="B49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="48">
+      <c r="B50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="24">
+      <c r="B51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="48">
+      <c r="B52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="24">
-      <c r="C42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="48">
-      <c r="C43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="48">
-      <c r="C44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="48">
-      <c r="C45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="24">
-      <c r="C46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="72">
-      <c r="C47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="48">
-      <c r="C48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" ht="48">
-      <c r="C49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" ht="48">
-      <c r="C50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" ht="24">
-      <c r="C51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" ht="48">
-      <c r="C52" s="1" t="s">
+    <row r="53" spans="2:6" ht="144">
+      <c r="B53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="3:7" ht="144">
-      <c r="C53" s="1" t="s">
+    <row r="54" spans="2:6" ht="24">
+      <c r="B54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" ht="24">
-      <c r="C54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A37" xr:uid="{AFBE8648-7E7E-B84A-85DF-8D06C1E4C2CD}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D54AFC-090F-AC47-A083-1FD7E7EEAF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D86B4-F733-2B49-9BDE-7E83440CD59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -190,9 +190,6 @@
     <t>메인</t>
   </si>
   <si>
-    <t>main_1</t>
-  </si>
-  <si>
     <t>테스트</t>
   </si>
   <si>
@@ -345,6 +342,10 @@
   </si>
   <si>
     <t>https://threejs.org/</t>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -723,7 +724,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -744,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -763,7 +764,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24">
@@ -786,28 +787,28 @@
     </row>
     <row r="7" spans="1:6" ht="24">
       <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24">
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24">
       <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24">
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -815,23 +816,23 @@
     </row>
     <row r="11" spans="1:6" ht="24">
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24">
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24">
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24">
@@ -844,7 +845,7 @@
     </row>
     <row r="15" spans="1:6" ht="24">
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -852,7 +853,7 @@
     </row>
     <row r="16" spans="1:6" ht="48">
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
@@ -860,92 +861,92 @@
     </row>
     <row r="17" spans="2:5" ht="24">
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="24">
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="24">
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="24">
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="24">
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="24">
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="24">
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="24">
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="24">
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="24">
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="24">
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="24">
       <c r="D28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="24">
@@ -995,7 +996,7 @@
     </row>
     <row r="35" spans="1:6" ht="24">
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>21</v>
@@ -1011,7 +1012,7 @@
     </row>
     <row r="37" spans="1:6" ht="24">
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>24</v>
@@ -1019,31 +1020,31 @@
     </row>
     <row r="38" spans="1:6" ht="24">
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24">
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="48">
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24">
@@ -1128,26 +1129,26 @@
     </row>
     <row r="52" spans="2:6" ht="48">
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="144">
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="24">
       <c r="B54" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D86B4-F733-2B49-9BDE-7E83440CD59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC4EC84-FAE3-2842-A5D3-4F55D697329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,14 @@
   </si>
   <si>
     <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_pub_sitemap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,11 +728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -795,359 +803,367 @@
     </row>
     <row r="8" spans="1:6" ht="24">
       <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24">
+      <c r="B9" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24">
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24">
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24">
       <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24">
+      <c r="C12" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24">
-      <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24">
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24">
       <c r="D14" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24">
       <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="48">
-      <c r="D16" s="1" t="s">
+    <row r="17" spans="2:5" ht="48">
+      <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="24">
-      <c r="C17" s="1" t="s">
+    <row r="18" spans="2:5" ht="24">
+      <c r="C18" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="24">
-      <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="24">
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="24">
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="24">
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="24">
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="24">
       <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="24">
+      <c r="D24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="24">
-      <c r="C24" s="1" t="s">
+    <row r="25" spans="2:5" ht="24">
+      <c r="C25" s="1" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="24">
-      <c r="D25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="24">
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="24">
       <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="24">
       <c r="D28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="24">
+      <c r="D29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="24">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="2:5" ht="24">
+      <c r="B30" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="24">
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="24">
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="24">
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24">
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24">
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24">
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24">
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24">
       <c r="C37" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24">
       <c r="C38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24">
       <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24">
+      <c r="C40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:6" ht="24" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="48">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:6" ht="48">
+      <c r="B42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="24">
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:6" ht="24">
+      <c r="B43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="48">
-      <c r="B43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="48">
       <c r="B44" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48">
       <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="48">
+      <c r="B46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="24">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:6" ht="24">
+      <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="72">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:6" ht="72">
+      <c r="B48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="48">
-      <c r="B48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="48">
       <c r="B49" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="48">
       <c r="B50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="48">
+      <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="24">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="2:6" ht="24">
+      <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="48">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="2:6" ht="48">
+      <c r="B53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="144">
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="2:6" ht="144">
+      <c r="B54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="24">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="2:6" ht="24">
+      <c r="B55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>99</v>
       </c>
     </row>

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC4EC84-FAE3-2842-A5D3-4F55D697329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF3075-E085-BD41-9347-86DAF703B6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,15 +308,9 @@
     <t>FontAwesome</t>
   </si>
   <si>
-    <t>threejs</t>
-  </si>
-  <si>
     <t>_pub_fontawesome</t>
   </si>
   <si>
-    <t>_pub_three</t>
-  </si>
-  <si>
     <t>라이브러리 공식 홈페이지</t>
   </si>
   <si>
@@ -329,9 +323,6 @@
     <t>D3.js - 웹차트</t>
   </si>
   <si>
-    <t>threejs - 3D 모델링</t>
-  </si>
-  <si>
     <t>https://uaparser.js.org/</t>
   </si>
   <si>
@@ -339,9 +330,6 @@
   </si>
   <si>
     <t>https://observablehq.com/@d3/gallery?utm_source=d3js-org&amp;utm_medium=nav&amp;utm_campaign=try-observable</t>
-  </si>
-  <si>
-    <t>https://threejs.org/</t>
   </si>
   <si>
     <t>index</t>
@@ -728,11 +716,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -772,7 +760,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24">
@@ -803,10 +791,10 @@
     </row>
     <row r="8" spans="1:6" ht="24">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24">
@@ -1039,132 +1027,116 @@
         <v>87</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="24">
-      <c r="C40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="1" t="s">
+    <row r="41" spans="1:6" ht="48">
+      <c r="B41" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="24" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="48">
+      <c r="F41" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="24">
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="48">
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="48">
       <c r="B44" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48">
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="24">
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="72">
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="72">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="48">
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="48">
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="48">
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="24">
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="48">
       <c r="B52" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="48">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="144">
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="144">
-      <c r="B54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="24">
-      <c r="B55" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF3075-E085-BD41-9347-86DAF703B6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CD9C04-5FD8-EB4F-80DE-E984FF3FCC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,16 +320,10 @@
     <t>fontawesome - 아이콘</t>
   </si>
   <si>
-    <t>D3.js - 웹차트</t>
-  </si>
-  <si>
     <t>https://uaparser.js.org/</t>
   </si>
   <si>
     <t>https://fontawesome.com/download</t>
-  </si>
-  <si>
-    <t>https://observablehq.com/@d3/gallery?utm_source=d3js-org&amp;utm_medium=nav&amp;utm_campaign=try-observable</t>
   </si>
   <si>
     <t>index</t>
@@ -716,17 +710,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="90.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -760,7 +755,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24">
@@ -791,10 +786,10 @@
     </row>
     <row r="8" spans="1:6" ht="24">
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24">
@@ -1040,7 +1035,7 @@
         <v>90</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24">
@@ -1128,15 +1123,7 @@
         <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="144">
-      <c r="B53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CD9C04-5FD8-EB4F-80DE-E984FF3FCC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61446B29-7713-8C46-8475-C72B8F4CE1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,14 @@
   </si>
   <si>
     <t>_pub_sitemap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandlebarsJS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_pub_hbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,11 +718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -955,174 +963,182 @@
     </row>
     <row r="31" spans="2:5" ht="24">
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="24">
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24">
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24">
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24">
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24">
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24">
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24">
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24">
       <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24">
+      <c r="C40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:6" ht="24" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="48">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:6" ht="48">
+      <c r="B42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="24">
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:6" ht="24">
+      <c r="B43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="48">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:6" ht="24">
+      <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="48">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:6" ht="24">
+      <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="48">
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:6" ht="48">
+      <c r="B46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="24">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:6" ht="24">
+      <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="72">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:6" ht="24">
+      <c r="B48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="48">
-      <c r="B48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="48">
       <c r="B49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="24">
+      <c r="B50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="48">
-      <c r="B50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="24">
       <c r="B51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="24">
+      <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="48">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="2:6" ht="24">
+      <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>93</v>
       </c>
     </row>

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61446B29-7713-8C46-8475-C72B8F4CE1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61574943-A71D-3E40-8BEF-800B8D418438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,18 @@
   </si>
   <si>
     <t>_pub_hbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬보드 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashboard_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,11 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -781,364 +793,377 @@
     </row>
     <row r="6" spans="1:6" ht="24">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24">
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24">
-      <c r="B8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>96</v>
+      <c r="A8" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24">
       <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24">
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24">
+      <c r="B11" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24">
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24">
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24">
       <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24">
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24">
+      <c r="C14" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24">
-      <c r="D13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24">
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24">
       <c r="D15" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24">
       <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="24">
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="24">
+      <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="48">
-      <c r="D17" s="1" t="s">
+    <row r="19" spans="2:5" ht="48">
+      <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="24">
-      <c r="C18" s="1" t="s">
+    <row r="20" spans="2:5" ht="24">
+      <c r="C20" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="24">
-      <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="24">
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="24">
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="24">
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="24">
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="24">
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="24">
-      <c r="C25" s="1" t="s">
-        <v>76</v>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="24">
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="24">
-      <c r="D27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>82</v>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="24">
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="24">
       <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="24">
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="24">
+      <c r="D31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="24">
-      <c r="B30" s="1" t="s">
+    <row r="32" spans="2:5" ht="24">
+      <c r="B32" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="24">
-      <c r="C31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="24">
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24">
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24">
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24">
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24">
       <c r="C36" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24">
       <c r="C37" s="1" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24">
       <c r="C38" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24">
       <c r="C39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24">
       <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24">
+      <c r="C41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="24">
+      <c r="C42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="24" customHeight="1">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:6" ht="24" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="48">
-      <c r="B42" s="1" t="s">
+    <row r="44" spans="1:6" ht="48">
+      <c r="B44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24">
-      <c r="B43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24">
-      <c r="B44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="24">
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="24">
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24">
       <c r="B47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="48">
+      <c r="B48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="24">
+      <c r="B49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="24">
-      <c r="B48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="48">
-      <c r="B49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="24">
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="48">
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="24">
       <c r="B52" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="24">
       <c r="B53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="24">
+      <c r="B54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="24">
+      <c r="B55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>93</v>
       </c>
     </row>

--- a/MENU_DATA.xlsx
+++ b/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61574943-A71D-3E40-8BEF-800B8D418438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ADA63A-8E14-CB4A-9BDD-8D8275398776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,14 @@
   </si>
   <si>
     <t>dashboard_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAYOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,22 +738,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="90.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24">
+    <row r="1" spans="1:7" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,13 +772,16 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="24">
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24">
+    <row r="3" spans="1:7" ht="24">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -778,12 +789,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24">
+    <row r="4" spans="1:7" ht="24">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24">
+    <row r="5" spans="1:7" ht="24">
       <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
@@ -791,25 +802,28 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24">
+    <row r="6" spans="1:7" ht="24">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24">
+    <row r="7" spans="1:7" ht="24">
       <c r="B7" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="24">
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24">
+    <row r="9" spans="1:7" ht="24">
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
@@ -817,7 +831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24">
+    <row r="10" spans="1:7" ht="24">
       <c r="B10" s="1" t="s">
         <v>95</v>
       </c>
@@ -825,12 +839,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24">
+    <row r="11" spans="1:7" ht="24">
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24">
+    <row r="12" spans="1:7" ht="24">
       <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
@@ -838,7 +852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24">
+    <row r="13" spans="1:7" ht="24">
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
@@ -846,12 +860,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24">
+    <row r="14" spans="1:7" ht="24">
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24">
+    <row r="15" spans="1:7" ht="24">
       <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
@@ -859,7 +873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24">
+    <row r="16" spans="1:7" ht="24">
       <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
